--- a/Excel/lennoxPros.xlsx
+++ b/Excel/lennoxPros.xlsx
@@ -97,9 +97,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,7 +483,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
